--- a/deno/gen/usr/usr.xlsx
+++ b/deno/gen/usr/usr.xlsx
@@ -36,12 +36,15 @@
     <t xml:space="preserve">用户名</t>
   </si>
   <si>
+    <t xml:space="preserve">锁定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">角色</t>
+  </si>
+  <si>
     <t xml:space="preserve">启用</t>
   </si>
   <si>
-    <t xml:space="preserve">角色</t>
-  </si>
-  <si>
     <t xml:space="preserve">备注</t>
   </si>
   <si>
@@ -51,10 +54,13 @@
     <t xml:space="preserve">&lt;%=model.username%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%~model._is_locked%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model._role_ids%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model._role_ids%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
@@ -404,22 +410,28 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/deno/gen/usr/usr.xlsx
+++ b/deno/gen/usr/usr.xlsx
@@ -36,16 +36,19 @@
     <t xml:space="preserve">用户名</t>
   </si>
   <si>
+    <t xml:space="preserve">启用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拥有部门</t>
+  </si>
+  <si>
     <t xml:space="preserve">锁定</t>
   </si>
   <si>
-    <t xml:space="preserve">角色</t>
-  </si>
-  <si>
-    <t xml:space="preserve">启用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
+    <t xml:space="preserve">拥有角色</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.lbl%&gt;</t>
@@ -54,16 +57,19 @@
     <t xml:space="preserve">&lt;%=model.username%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%~model._is_locked%&gt;</t>
+    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model._dept_ids%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model._is_locked%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model._role_ids%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
   </si>
 </sst>
 </file>
@@ -413,25 +419,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/deno/gen/usr/usr.xlsx
+++ b/deno/gen/usr/usr.xlsx
@@ -36,6 +36,9 @@
     <t xml:space="preserve">用户名</t>
   </si>
   <si>
+    <t xml:space="preserve">默认部门</t>
+  </si>
+  <si>
     <t xml:space="preserve">启用</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.username%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model._default_dept_id%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
@@ -422,28 +428,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/deno/gen/usr/usr.xlsx
+++ b/deno/gen/usr/usr.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">&lt;%=model._default_dept_id%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.is_enabled%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">&lt;%=model._dept_ids%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model._is_locked%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.is_locked%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model._role_ids%&gt;</t>

--- a/deno/gen/usr/usr.xlsx
+++ b/deno/gen/usr/usr.xlsx
@@ -30,28 +30,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">默认部门</t>
-  </si>
-  <si>
-    <t xml:space="preserve">启用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">拥有部门</t>
-  </si>
-  <si>
-    <t xml:space="preserve">锁定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">拥有角色</t>
+    <t xml:space="preserve">&lt;%=await _data_.n("名称")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("用户名")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("默认部门")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("启用")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("备注")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("拥有部门")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("锁定")%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=await _data_.n("拥有角色")%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.lbl%&gt;</t>
